--- a/ds/planejamento/1semestre/planos/Plano_de_Ensino_LOPAL.xlsx
+++ b/ds/planejamento/1semestre/planos/Plano_de_Ensino_LOPAL.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sn1057928\Desktop\senai2026\ds\planejamento\1semestre\planos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D0FF2-3E20-49F0-A99E-DF4AB80B0F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B530805-5BB9-414E-BD3D-84181ACE2576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plano de Ensino" sheetId="2" r:id="rId1"/>
+    <sheet name="Lista de exercícios 01" sheetId="3" r:id="rId2"/>
+    <sheet name="Lista de exercícios 02" sheetId="4" r:id="rId3"/>
+    <sheet name="Lista de exercícios 03" sheetId="5" r:id="rId4"/>
+    <sheet name="Desafios em dupla" sheetId="6" r:id="rId5"/>
+    <sheet name="Lista de exercícios 04" sheetId="8" r:id="rId6"/>
+    <sheet name="Desafios individuais" sheetId="12" r:id="rId7"/>
+    <sheet name="Desafios arquivos" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +43,110 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="9">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="7"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="8"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="9">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+    <bk>
+      <rc t="1" v="2"/>
+    </bk>
+    <bk>
+      <rc t="1" v="3"/>
+    </bk>
+    <bk>
+      <rc t="1" v="4"/>
+    </bk>
+    <bk>
+      <rc t="1" v="5"/>
+    </bk>
+    <bk>
+      <rc t="1" v="6"/>
+    </bk>
+    <bk>
+      <rc t="1" v="7"/>
+    </bk>
+    <bk>
+      <rc t="1" v="8"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="370">
   <si>
     <t>PLANO DE ENSINO</t>
   </si>
@@ -590,6 +699,826 @@
   <si>
     <t>Utilizou IF() para seguimentar dados direcionando o fluxo da programação</t>
   </si>
+  <si>
+    <t>1) Desenvolva um programa que leia três variáveis (a, b, c) e resolva a expressão: ( a + b ) / c.</t>
+  </si>
+  <si>
+    <t>2) Desenvolva um programa que leia a velocidade de um carro (km/h) e a distância a ser percorrida (km) por ele. Calcule apresente na tela, quanto tempo (horas) será necessário para o carro percorrer a distância informada.</t>
+  </si>
+  <si>
+    <t>3) Desenvolva um programa que leia o nome e o salário de uma pessoa, depois leia o valor do índice percentual (%) de reajuste do salário. Calcule e apresente na tela, o valor do novo salário e o nome da pessoa.</t>
+  </si>
+  <si>
+    <t>4) Desenvolva um programa que leia o nome de um time de futebol, o número de vitórias e o número de empates. O algoritmo deverá calcular e apresentar na tela, o nome do time e o total de pontos. Lembrando que a vitória vale 3 pontos e o empate vale 1 ponto.</t>
+  </si>
+  <si>
+    <t>5) Desenvolva um programa que leia um número ”n” inteiro, positivo e diferente de zero e apresente na tela: n – 1, e também n + 1.</t>
+  </si>
+  <si>
+    <t>6) Sabendo-se que a velocidade de cruzeiro de um avião 747-300 é de 900 km/h, faça um programa que leia uma distância (km), calcule e apresente na tela, quanto tempo (horas) será necessário para um 747-300 sobrevoar a distância informada.</t>
+  </si>
+  <si>
+    <t>7) Um caminhão consegue transportar 18 toneladas de laranjas em uma viagem que faz entre a fazenda e a fábrica de suco de laranja. Um alqueire de terra produz em média 250 toneladas de laranjas. Faça um programa que leia quantos caminhões e quantos alqueires uma fazenda produtora de laranjas possui, calcule e apresente na tela quantas viagens de caminhão serão necessárias para transportar toda a colheita de laranjas.</t>
+  </si>
+  <si>
+    <t>8) Desenvolva um programa que leia o raio (cm) e a altura (cm) de um cilindro. Calcule e mostre a área (cm2) e o volume (cm3) do cilindro.</t>
+  </si>
+  <si>
+    <t>9) Desenvolva um programa que leia o nome e o preço de uma mercadoria. O programa deverá calcular um aumento de 5% no preço da mercadoria e mostrar o nome da mercadoria e o seu novo preço.</t>
+  </si>
+  <si>
+    <t>10) Desenvolva um programa que leia o nome de uma cidade, o número total de eleitores e o número total de votos apurados na última eleição. O programa deverá calcular e exibir a porcentagem de participação dos eleitores desta cidade na última eleição.</t>
+  </si>
+  <si>
+    <t>Mostre o carderno ao seu professor ao concluir todos os exercícios.</t>
+  </si>
+  <si>
+    <t>Exercício 2</t>
+  </si>
+  <si>
+    <t>Algoritmo</t>
+  </si>
+  <si>
+    <t>Fluxograma</t>
+  </si>
+  <si>
+    <t>variáveis velocidade, distancia, tempo;</t>
+  </si>
+  <si>
+    <t>escreva("Digite a velocidade do seu carro")</t>
+  </si>
+  <si>
+    <t>leia(velocidade)</t>
+  </si>
+  <si>
+    <t>escreva("Digite a distância percorrida")</t>
+  </si>
+  <si>
+    <t>leia(distancia)</t>
+  </si>
+  <si>
+    <t>tempo = distancia / velocidade</t>
+  </si>
+  <si>
+    <t>escreva("O tempo gasto será de ", tempo, "horas")</t>
+  </si>
+  <si>
+    <t>Teste de mesa</t>
+  </si>
+  <si>
+    <t>Velocidade</t>
+  </si>
+  <si>
+    <t>distância</t>
+  </si>
+  <si>
+    <t>tempo</t>
+  </si>
+  <si>
+    <t>Exercício 3</t>
+  </si>
+  <si>
+    <t>variáveis nome, salario, aumentoP, aumentoRS, novoSalario</t>
+  </si>
+  <si>
+    <t>escreva("Digite seu nome")</t>
+  </si>
+  <si>
+    <t>leia(nome)</t>
+  </si>
+  <si>
+    <t>escreva("Digite seu salário)</t>
+  </si>
+  <si>
+    <t>leia(salario)</t>
+  </si>
+  <si>
+    <t>escreva("Digite a porcentagem de aumento")</t>
+  </si>
+  <si>
+    <t>leia(aumentoP)</t>
+  </si>
+  <si>
+    <t>aumentoRS = salario * aumentoP / 100</t>
+  </si>
+  <si>
+    <t>novoSalario = salario + aumentoRS</t>
+  </si>
+  <si>
+    <t>escreva(nome, "seu novo salário é", novoSalario)</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>salario</t>
+  </si>
+  <si>
+    <t>aumentoP</t>
+  </si>
+  <si>
+    <t>aumentoRS</t>
+  </si>
+  <si>
+    <t>novoSalario</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>Exercício 4</t>
+  </si>
+  <si>
+    <t>variaveis time, vitorias, empates, pontos</t>
+  </si>
+  <si>
+    <t>escreva("Digite o nome do time de futebol")</t>
+  </si>
+  <si>
+    <t>leia(time)</t>
+  </si>
+  <si>
+    <t>escreva("Quantas vezes o time venceu?")</t>
+  </si>
+  <si>
+    <t>leia(vitorias)</t>
+  </si>
+  <si>
+    <t>escreva("Quantas vezes o time empatou?")</t>
+  </si>
+  <si>
+    <t>leia(empates)</t>
+  </si>
+  <si>
+    <t>pontos = vitorias * 3 + empates</t>
+  </si>
+  <si>
+    <t>escreva("O time", time," possui ", pontos, "pontos")</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>vitorias</t>
+  </si>
+  <si>
+    <t>empates</t>
+  </si>
+  <si>
+    <t>pontos</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Exercício 5</t>
+  </si>
+  <si>
+    <t>variaveis n, nMais, nMenos</t>
+  </si>
+  <si>
+    <t>escreva("Digite um número inteiro positivo")</t>
+  </si>
+  <si>
+    <t>leia(n)</t>
+  </si>
+  <si>
+    <t>se(n &gt; 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nMais = n + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    nMenos = n - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    escreva("n + 1 = ", nMais)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    escreva("n - 1 = ", nMenos)</t>
+  </si>
+  <si>
+    <t>senão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    escreva("O número digitado não é positivo")</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>nMais</t>
+  </si>
+  <si>
+    <t>nMenos</t>
+  </si>
+  <si>
+    <t>Exercício 6</t>
+  </si>
+  <si>
+    <t>variáveis velocidade = 900, distancia, tempo;</t>
+  </si>
+  <si>
+    <t>escreva("Digite a distância percorrida pelo avião")</t>
+  </si>
+  <si>
+    <t>Distancia</t>
+  </si>
+  <si>
+    <t>Exercício 7</t>
+  </si>
+  <si>
+    <t>variáveis caminhoes, alqueires, viagens;</t>
+  </si>
+  <si>
+    <t>escreva("Digite quantos alqueires sua fazenda possui:")</t>
+  </si>
+  <si>
+    <t>leia(alqueires)</t>
+  </si>
+  <si>
+    <t>escreva("Digite quantos caminhões você possui:")</t>
+  </si>
+  <si>
+    <t>leia(caminhoes)</t>
+  </si>
+  <si>
+    <t>viagens = alqueires * 250 / (caminhoes * 18)</t>
+  </si>
+  <si>
+    <t>escreva("Será necessário ", viagens,</t>
+  </si>
+  <si>
+    <t>"para transportar sua produção")</t>
+  </si>
+  <si>
+    <t>alqueires</t>
+  </si>
+  <si>
+    <t>caminhoes</t>
+  </si>
+  <si>
+    <t>viagens</t>
+  </si>
+  <si>
+    <t>13.9</t>
+  </si>
+  <si>
+    <t>Exercício 8</t>
+  </si>
+  <si>
+    <t>variáveis raio, altura, area, volume;</t>
+  </si>
+  <si>
+    <t>escreva("Digite o raio de um cilindro:")</t>
+  </si>
+  <si>
+    <t>leia(raio)</t>
+  </si>
+  <si>
+    <t>escreva("Digite a altura do cilindro:")</t>
+  </si>
+  <si>
+    <t>leia(altura)</t>
+  </si>
+  <si>
+    <t>area = 2 * 3.14 * raio * (raio + altura)</t>
+  </si>
+  <si>
+    <t>volume  = 3.14 * raio * raio * altura</t>
+  </si>
+  <si>
+    <t>escreva("A área do cilindro é ", area,</t>
+  </si>
+  <si>
+    <t>", e o volume é", volume)</t>
+  </si>
+  <si>
+    <t>raio</t>
+  </si>
+  <si>
+    <t>altura</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>100.48</t>
+  </si>
+  <si>
+    <t>Exercício 9</t>
+  </si>
+  <si>
+    <t>variáveis nome, preco, novoPreco;</t>
+  </si>
+  <si>
+    <t>escreva("Digite o nome da mercadoria:")</t>
+  </si>
+  <si>
+    <t>escreva("Preço da mercadoria:")</t>
+  </si>
+  <si>
+    <t>leia(preco)</t>
+  </si>
+  <si>
+    <t>novoPreco = preco + preco * 5 / 100</t>
+  </si>
+  <si>
+    <t>escreva("O novo preco de ", nome, "é", novoPreco)</t>
+  </si>
+  <si>
+    <t>preco</t>
+  </si>
+  <si>
+    <t>novoPreco</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Exercício 10</t>
+  </si>
+  <si>
+    <t>variáveis cidade, eleitores, votos, porcentagem;</t>
+  </si>
+  <si>
+    <t>escreva("Digite o nome da cidade:")</t>
+  </si>
+  <si>
+    <t>leia(cidade)</t>
+  </si>
+  <si>
+    <t>escreva("Digite quantos eleitores esta cidade possui:")</t>
+  </si>
+  <si>
+    <t>leia(eleitores)</t>
+  </si>
+  <si>
+    <t>escreva("Digite quantos votos teve a última eleição:")</t>
+  </si>
+  <si>
+    <t>leia(votos)</t>
+  </si>
+  <si>
+    <t>porcentagem = votos / eleitores * 100</t>
+  </si>
+  <si>
+    <t>escreva("A porcentagem de votos da cidade", cidade, "</t>
+  </si>
+  <si>
+    <t>na última eleição foi de", porcentagem)</t>
+  </si>
+  <si>
+    <t>cidade</t>
+  </si>
+  <si>
+    <t>eleitores</t>
+  </si>
+  <si>
+    <t>votos</t>
+  </si>
+  <si>
+    <t>Porcentagem</t>
+  </si>
+  <si>
+    <t>Amparo</t>
+  </si>
+  <si>
+    <t>1 Desenvolva um programa que leia o preço de um produto e se o preço for maior do que 1000 reais aplique um desconto de 8%. Mostre o preço final.</t>
+  </si>
+  <si>
+    <t>2 Desenvolva um programa que leia o salário de um funcionário e o número de filhos. Se o salário for menor do que 2000 o funcionário receberá um salário família equivalente a 45 reais por filho. Apresente o salário final.</t>
+  </si>
+  <si>
+    <t>3 Desenvolva um programa que calcule desconto de INSS de um funcionário, se o salário for menor ou igual a do que R$ 1212,00 reais será de 7,5%, se estiver entre R$ 1212,01 e 2427,35 será de 9%, se estiver entre R$ 2427,36 e R$ 3641,03 o desconto é 12%, se estiver entre R$ 3641,04 a R$ 7087,22 será de 14% e se for maior do que 7087,22 o teto que é o máximo cobrado 14% de 7087,22. Mostre o desconto e o valor do salário final.</t>
+  </si>
+  <si>
+    <t>4 Desenvolva um programa que leia os valores de três lados de um triângulo (a, b e c) e se os três lados forem diferentes escreva ESCALENO se os três lados forem iguais EQUILÁTERO e se apenas dois lados forem iguais ISÓSCELES.</t>
+  </si>
+  <si>
+    <t>6 Desenvolva um programa que leia 6 números inteiros e exiba na tela ao final, o maior número que foi digitado pelo usuáriou.</t>
+  </si>
+  <si>
+    <t>7 Escreva um programa que leia 5 números inteiros em qualquer ordem e exiba na tela ao final, os cinco números em ordem crescente.</t>
+  </si>
+  <si>
+    <t>8 Escreva um programa que leia dois números inteiros e determine qual é o maior e o menor.</t>
+  </si>
+  <si>
+    <t>9 Desenvolva um algortimo que faço o cálculo do reajuste salarial do funcionário, baseado nos seguintes parâmetros:</t>
+  </si>
+  <si>
+    <t>15% de aumento : 1.500,00 &lt;= salario Atual &lt; 1.750,00</t>
+  </si>
+  <si>
+    <t>12% de aumento : 1.750,00 &lt;= salario Atual &lt; 2.000,00</t>
+  </si>
+  <si>
+    <t>9% de aumento : 2.000,00 &lt;= salario Atual &lt; 3.000,00</t>
+  </si>
+  <si>
+    <t>6% de aumento : salario Atual &gt;= 3.000,00</t>
+  </si>
+  <si>
+    <t>10 Crie um programa que calcule a média de 3 notas do aluno e informe sua situação: (nota maior ou igual a 6 : aprovado), (nota inferior a 6 e maior ou igual a 4 : recuperação), (nota menor que 4 : reprovado).</t>
+  </si>
+  <si>
+    <t>11 Uma loja está fazendo uma promoção e precisa de ajuda no momento da venda, para liberar os descontos. Baseado na peça, calcule o desconto e exiba o valor final da venda. (camisa - 20% de desconto, bermuda - 10% de desconto, calça - 15% de desconto).</t>
+  </si>
+  <si>
+    <t>Lista de exercícios 02</t>
+  </si>
+  <si>
+    <t>5 Desenvolva um programa que leia o nome e o preço de uma mercadoria. Se o preço for menor do que 1000 terá um aumento de 5% no preço da mercadoria, senão o aumento será de 7%. Mostrar o nome da mercadoria e o seu novo preço.</t>
+  </si>
+  <si>
+    <t>Exercícios de algoritmos, fluxogramas e teste de mesa</t>
+  </si>
+  <si>
+    <t>Exercícios de condicionais, executados no computador com linguagem C ou Python</t>
+  </si>
+  <si>
+    <t>1 - Faça um programa que mostre na tela valores no intervalo entre 10 e 200;</t>
+  </si>
+  <si>
+    <t>2 - Faça um programa que mostre na tela valores no intervalo entre 200 e 10;</t>
+  </si>
+  <si>
+    <t>3 - Faça um programa que solicite que o usuário digite um valor inteiro, positivo e imprima todos os valores entre 0 e o número digitado;</t>
+  </si>
+  <si>
+    <t>4 - Faça um programa que solicite que o usuário digite dois valores inteiros diferentes e imprima todos os valores entre o um número e o outro;</t>
+  </si>
+  <si>
+    <t>5 - Faça um programa que solicite que o usuário digite um valor inteiro, positivo e imprima todos os valores entre 0 e o número digitado de 2 em 2;</t>
+  </si>
+  <si>
+    <r>
+      <t>6 - Faça um programa que solicite que o usuário digite um valor inteiro, positivo e imprima todos os valores </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>ímpares</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> entre 0 e o número digitado;</t>
+    </r>
+  </si>
+  <si>
+    <t>7 - Faça um programa que imprima na tela a soma dos valores inteiros entre 0 e 100;</t>
+  </si>
+  <si>
+    <r>
+      <t>8 - Faça um programa que peça para o usuário digitar um número inteiro positivo e calcule o </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>fatorial</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> deste número;</t>
+    </r>
+  </si>
+  <si>
+    <t>9 - Escreva um programa que exiba na tela a tabuada de um número que deverá ser informado pelo usuário entre 0 e 10;</t>
+  </si>
+  <si>
+    <t>Exemplo: Digite um número: 4</t>
+  </si>
+  <si>
+    <t>4 x 0 = 0</t>
+  </si>
+  <si>
+    <t>4 x 1 = 4</t>
+  </si>
+  <si>
+    <t>4 x 2 = 8</t>
+  </si>
+  <si>
+    <t>4 x 3 = 12</t>
+  </si>
+  <si>
+    <t>4 x 4 = 16</t>
+  </si>
+  <si>
+    <t>4 x 5 = 20</t>
+  </si>
+  <si>
+    <t>4 x 6 = 24</t>
+  </si>
+  <si>
+    <t>4 x 7 = 28</t>
+  </si>
+  <si>
+    <t>4 x 8 = 32</t>
+  </si>
+  <si>
+    <t>4 x 9 = 36</t>
+  </si>
+  <si>
+    <t>4 x 10 = 40</t>
+  </si>
+  <si>
+    <t>10 - Escreva um programa que leia 10 números inteiros e exiba na tela ao final, o maior número que foi digitado pelo usuário.</t>
+  </si>
+  <si>
+    <t>11 - Escreva um programa que leia 5 números inteiros em qualquer ordem e exiba na tela ao final, os cinco números em ordem crescente.</t>
+  </si>
+  <si>
+    <t>Exercícios de laços de repetição, executados no computador com linguagem C ou Python</t>
+  </si>
+  <si>
+    <t>Situação 01 - Coaching de condicionamento físico</t>
+  </si>
+  <si>
+    <t>Arnaldo é Coaching de condicionamento físico e solicita toda documentação médica a seus clientes e após o atestado de saúde, inicia a avaliação física do atleta, uma de suas avaliações é a pressão arterial, ele pede para o cliente medir a pressão arterial por 5 dias em um mesmo horário, antes dos exercícios, para saber a evolução ele calcula a pressão média.</t>
+  </si>
+  <si>
+    <t>Desafio A:</t>
+  </si>
+  <si>
+    <r>
+      <t>Crie um programa em C que leia o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>nome</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> do cliente e os 5 resultados da medição da pressão </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>sis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>:(sistólica) e </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>dia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>:(diastólica) e retorne as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>médias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> destes resultados.</t>
+    </r>
+  </si>
+  <si>
+    <t>Desafio B:</t>
+  </si>
+  <si>
+    <t>Para facilitar a digitação de Arnaldo, o programa deve pedir inicialmente o nome do atleta em seguida os valores sis. e dia. respectivamente: e ao final mostrar o nome e as médias.</t>
+  </si>
+  <si>
+    <t>Desafio C:</t>
+  </si>
+  <si>
+    <t>Alguns atletas não são muito disciplinados e não fazem o que Arnaldo pede, anotam os resultados por menos ou mais de 5 dias, altere o programa para que peça quantos dias deseja registrar as medidas.</t>
+  </si>
+  <si>
+    <t>Desafio D:</t>
+  </si>
+  <si>
+    <t>Arnaldo possui vários clientes/atletas, por isso o programa deve perguntar se deseja terminar (Digite 1) ou prosseguir (Digite 2), caso arnaldo deseje prosseguir deve voltar ao iício solicitando novamente o nome do cliente, quantos dias e as medidas.</t>
+  </si>
+  <si>
+    <t>Dados para teste</t>
+  </si>
+  <si>
+    <t>Sis.</t>
+  </si>
+  <si>
+    <t>Dia.</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Obs:</t>
+  </si>
+  <si>
+    <t>Durante o desafio em dupla, o instrutor pedirá que as duplas alternem no teclado, altere os integrantes e alterem as estações de trabalho para que os alunos possam se testar em diversas competências como:</t>
+  </si>
+  <si>
+    <t>Raciocínio lógico</t>
+  </si>
+  <si>
+    <t>Trabalho em equipe</t>
+  </si>
+  <si>
+    <t>Resolução de problemas</t>
+  </si>
+  <si>
+    <t>Atenção a detalhes</t>
+  </si>
+  <si>
+    <t>Entre outras</t>
+  </si>
+  <si>
+    <t>Situação 02 - Calculadora de IMC para Consultório Médico</t>
+  </si>
+  <si>
+    <t>Um consultório médico necessita de um programa de computador para calcular o Índice de Massa Corporal (IMC) de seus pacientes de forma rápida e precisa. O IMC é uma medida utilizada para avaliar a relação entre o peso e a altura de uma pessoa, sendo um indicativo importante para avaliar a saúde e o estado nutricional.</t>
+  </si>
+  <si>
+    <t>Desafio:</t>
+  </si>
+  <si>
+    <t>O programa deve receber as seguintes informações do paciente:</t>
+  </si>
+  <si>
+    <t>Nome completo</t>
+  </si>
+  <si>
+    <t>Peso (em quilogramas)</t>
+  </si>
+  <si>
+    <t>Altura (em metros)</t>
+  </si>
+  <si>
+    <t>O programa deverá realizar os seguintes passos:</t>
+  </si>
+  <si>
+    <t>Solicitar ao usuário que insira seu nome completo, peso e altura.</t>
+  </si>
+  <si>
+    <t>Calcular o IMC utilizando a fórmula</t>
+  </si>
+  <si>
+    <t>Classificar o resultado de acordo com a tabela de classificação do IMC:</t>
+  </si>
+  <si>
+    <t>Nova funcionalidade</t>
+  </si>
+  <si>
+    <t>Como o consultório tem vários clientes o programa deve perguntar ao usuário se deseja sair ou continuar ao final da execução.</t>
+  </si>
+  <si>
+    <t>https://github.com/wellifabio/senai2023/tree/main/1des/01-fpoo/aula07/codigos</t>
+  </si>
+  <si>
+    <t>Soluções em:</t>
+  </si>
+  <si>
+    <t>Lista de exercícios 04</t>
+  </si>
+  <si>
+    <t>Lista de exercícios 03</t>
+  </si>
+  <si>
+    <t>Lista de exercícios 01</t>
+  </si>
+  <si>
+    <t>OBS: caso seja necessário, valide as entradas com laços de repetição para impedir valores absurdos.</t>
+  </si>
+  <si>
+    <t>1 - Desenvolva um programa que leia o nome e o salário de 5 pessoas, depois leia um valor de índice percentual (%) de reajuste do salário. Calcule e apresente na tela, o valor do novo salário e o nome das 5 pessoas.</t>
+  </si>
+  <si>
+    <t>2 - Desenvolva um programa que leia o nome de 5 times de futebol, o número de vitórias e o número de empates de cada time. O programa deverá calcular e apresentar na tela, o nome dos times e o total de pontos de cada um e a ordem de classificação decrescente. Lembrando que a vitória vale 3 pontos e o empate vale 1 ponto.</t>
+  </si>
+  <si>
+    <t>3 - Desenvolva um programa que leia o nome e o preço de 5 mercadorias. Se o preço for menor do que 1000 terá um aumento de 5% no preço da mercadoria, senão o aumento será de 7%. Mostrar o nome das mercadorias e o seu novo preço.</t>
+  </si>
+  <si>
+    <t>4 - Desenvolva um programa que leia o nome e o preço de 5 mercadorias, apresente na tela o mais caro e o mais barato.</t>
+  </si>
+  <si>
+    <t>5 - Desenvolva um programa que leia o nome de 5 cidades, seu respectivo número total de eleitores e o total de votos apurados na última eleição. O programa deverá calcular e exibir a porcentagem de participação dos eleitores na eleição para 5 cidades.</t>
+  </si>
+  <si>
+    <t>6 - Desenvolva um programa que leia o nome e o preço de 10 mercadorias, depois leia o valor do índice percentual (%) de desconto no preço das mercadorias. Calcule e apresente na tela, o nome, o preço original, o valor do desconto e preço final (com o desconto) de cada mercadoria. Obs: é apenas uma porcentagem para todas as 10 mercadorias.</t>
+  </si>
+  <si>
+    <t>7 - Escreva um programa que leia 5 números inteiros em qualquer ordem e exiba na tela ao final, os cinco números em ordem decrescente.</t>
+  </si>
+  <si>
+    <t>8 - Crie um programa com dois vetores numéricos de dimensão 5 com valores informados pelo usuário. Apresente a soma do primeiro vetor com o inverso do segundo.</t>
+  </si>
+  <si>
+    <t>9 - Crie um vetor de tamanho 10, permita que o usuário o preencha, como saída informe: A soma e média dos pares; A soma e média dos impares; O total de números pares; O total de números impares;</t>
+  </si>
+  <si>
+    <t>10 - Utilizando apenas um vetor de tamanho 6, troque os valores de maneira inversa, ex: 2 4 6 8 10 11 inverso 11 10 8 6 4 2;</t>
+  </si>
+  <si>
+    <t>11 - Crie um programa que gere um vetor com 10 números inteiros aleatórios entre 0 e 100, Localize um valor informado pelo usuário dentro do vetor. Ex: 25 41 8 7 13 18 4 1 7 3, valor informado 13, está na posição 4 do vetor.</t>
+  </si>
+  <si>
+    <t>Exercícios de vetores, executados no computador com linguagem C ou Python</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Desafio 01:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F2328"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Criar um programa para apuração de votos, que solicite o nome da Cidade, o total de candidatos e em seguida os nomes e total de votos de cada candidato. O programa deverá informar a porcentagem de votos de cada candidato, o total de votos brancos e nulos, se a eleição é válida ou inválida (possui mais votos válidos do que nulos, em tempo: votos brancos são válidos), se for válida, qual o candidato vencedor ou se haverá segundo turno e informar os dois mais votados. Lembrando que só há segundo turno caso o primeiro colocado não obtenha 50% + 1 dos votos válidos em cidades com mais de 200 mil eleitores.</t>
+    </r>
+  </si>
+  <si>
+    <t>Desafio02:</t>
+  </si>
+  <si>
+    <t>Desafio03</t>
+  </si>
+  <si>
+    <t>Desafio 04</t>
+  </si>
+  <si>
+    <t>Desafio05</t>
+  </si>
 </sst>
 </file>
 
@@ -599,11 +1528,18 @@
     <numFmt numFmtId="164" formatCode="dd/mm"/>
     <numFmt numFmtId="165" formatCode="d/m"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -828,8 +1764,99 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13.75"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F2328"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0969DA"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,8 +1881,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1130,125 +2169,219 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D9E0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D9E0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD1D9E0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD1D9E0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1258,80 +2391,99 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1346,151 +2498,195 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1549,6 +2745,438 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>115524</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D3045EB-0978-E940-97DB-28F19CF196FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1638300"/>
+          <a:ext cx="8773749" cy="9716856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6954220</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>1061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D2DCE68-2473-B437-C3BE-D8D16E22D2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11715750"/>
+          <a:ext cx="6954220" cy="7602011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>258515</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>96223</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B5AFF9-6000-C221-DCB4-D8C2298D1A26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19678650"/>
+          <a:ext cx="9602540" cy="6973273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>153630</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>96224</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagem 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AF061F3-F1F0-EE1F-BE92-EFAE6DFB36EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26908125"/>
+          <a:ext cx="8811855" cy="6982799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>506044</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>67720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDDC1910-563C-EBDB-31CC-5CACA5F7C0AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8735644" cy="7487695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F33E2BDD-3E50-A06F-05DF-B7D1A88716F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7600950"/>
+          <a:ext cx="7773485" cy="7421011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>143779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59A0F362-179F-CE13-8ABE-047E4D15A59D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15201900"/>
+          <a:ext cx="7773485" cy="6477904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+  <rv s="0">
+    <v>6</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+  <rv s="0">
+    <v>7</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+  <rv s="0">
+    <v>8</v>
+    <v>5</v>
+    <v>Fluxograma</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+  <rel r:id="rId7"/>
+  <rel r:id="rId8"/>
+  <rel r:id="rId9"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1755,7 +3383,7 @@
   <dimension ref="A1:AA705"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="C4" sqref="C4:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1774,134 +3402,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="73" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="74"/>
-      <c r="E2" s="78" t="s">
+      <c r="D2" s="87"/>
+      <c r="E2" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="79"/>
-      <c r="G2" s="72" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="72"/>
+      <c r="J2" s="67"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="80" t="s">
+      <c r="A3" s="93"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="80"/>
-      <c r="G3" s="83" t="s">
+      <c r="F3" s="92"/>
+      <c r="G3" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="85"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="92" t="s">
+      <c r="D4" s="66"/>
+      <c r="E4" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="83" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="94" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="87" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="87"/>
-      <c r="E6" s="109" t="s">
+      <c r="D6" s="73"/>
+      <c r="E6" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="110"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="111"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="88"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
     </row>
     <row r="9" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
@@ -1922,14 +3550,14 @@
       <c r="F9" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="89" t="s">
+      <c r="G9" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89" t="s">
+      <c r="H9" s="75"/>
+      <c r="I9" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="89"/>
+      <c r="J9" s="75"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -1967,14 +3595,14 @@
       <c r="F10" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="90" t="s">
+      <c r="H10" s="77"/>
+      <c r="I10" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="J10" s="91"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -2012,14 +3640,14 @@
       <c r="F11" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="90" t="s">
+      <c r="G11" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="55" t="s">
+      <c r="H11" s="77"/>
+      <c r="I11" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="57"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2042,10 +3670,10 @@
       <c r="A12" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="32" t="s">
         <v>84</v>
       </c>
       <c r="D12" s="33" t="s">
@@ -2057,14 +3685,14 @@
       <c r="F12" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="55" t="s">
+      <c r="H12" s="97"/>
+      <c r="I12" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="57"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -2087,10 +3715,10 @@
       <c r="A13" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="32" t="s">
         <v>85</v>
       </c>
       <c r="D13" s="33" t="s">
@@ -2102,14 +3730,14 @@
       <c r="F13" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="55" t="s">
+      <c r="H13" s="97"/>
+      <c r="I13" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="J13" s="56"/>
+      <c r="J13" s="97"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -2132,10 +3760,10 @@
       <c r="A14" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="32" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="33" t="s">
@@ -2147,14 +3775,14 @@
       <c r="F14" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="55" t="s">
+      <c r="H14" s="97"/>
+      <c r="I14" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="56"/>
+      <c r="J14" s="97"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -2177,10 +3805,10 @@
       <c r="A15" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="2">
         <v>10</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="32" t="s">
         <v>86</v>
       </c>
       <c r="D15" s="33" t="s">
@@ -2192,14 +3820,14 @@
       <c r="F15" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="55" t="s">
+      <c r="H15" s="97"/>
+      <c r="I15" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="J15" s="56"/>
+      <c r="J15" s="97"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2222,10 +3850,10 @@
       <c r="A16" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="32" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="33" t="s">
@@ -2237,14 +3865,14 @@
       <c r="F16" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="55" t="s">
+      <c r="G16" s="68" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="55" t="s">
+      <c r="H16" s="97"/>
+      <c r="I16" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="56"/>
+      <c r="J16" s="97"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2282,14 +3910,14 @@
       <c r="F17" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="55" t="s">
+      <c r="G17" s="68" t="s">
         <v>102</v>
       </c>
-      <c r="H17" s="56"/>
-      <c r="I17" s="114" t="s">
+      <c r="H17" s="97"/>
+      <c r="I17" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="115"/>
+      <c r="J17" s="113"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2320,10 +3948,10 @@
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="119"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
@@ -2343,18 +3971,18 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="120"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -2374,18 +4002,18 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="108"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="108"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -2405,18 +4033,18 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2436,18 +4064,18 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -2467,18 +4095,18 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="341.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="O23" s="1"/>
@@ -2494,18 +4122,18 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2525,18 +4153,18 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2556,18 +4184,18 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="120" t="s">
+      <c r="A26" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2587,22 +4215,22 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="121" t="s">
+      <c r="A27" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="122"/>
-      <c r="D27" s="123" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="123"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="66" t="s">
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
@@ -2622,12 +4250,12 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="122"/>
-      <c r="B28" s="122"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="21">
         <v>1</v>
       </c>
@@ -2659,18 +4287,18 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113" t="s">
+      <c r="A29" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="48"/>
       <c r="D29" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="61"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="7"/>
       <c r="H29" s="18"/>
       <c r="I29" s="19"/>
@@ -2694,16 +4322,16 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="51" t="s">
+      <c r="A30" s="49"/>
+      <c r="B30" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="48"/>
       <c r="D30" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="7"/>
       <c r="H30" s="18"/>
       <c r="I30" s="19"/>
@@ -2727,16 +4355,16 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="51" t="s">
+      <c r="A31" s="49"/>
+      <c r="B31" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="48"/>
       <c r="D31" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="58"/>
       <c r="G31" s="7"/>
       <c r="H31" s="18"/>
       <c r="I31" s="19"/>
@@ -2760,16 +4388,16 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="49"/>
+      <c r="B32" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="47" t="s">
+      <c r="C32" s="48"/>
+      <c r="D32" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="52"/>
       <c r="G32" s="7"/>
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
@@ -2793,16 +4421,16 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="51" t="s">
+      <c r="A33" s="49"/>
+      <c r="B33" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="44" t="s">
+      <c r="C33" s="48"/>
+      <c r="D33" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
       <c r="G33" s="7"/>
       <c r="H33" s="18"/>
       <c r="I33" s="19"/>
@@ -2826,16 +4454,16 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="51" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="47" t="s">
+      <c r="C34" s="48"/>
+      <c r="D34" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="52"/>
       <c r="G34" s="7"/>
       <c r="H34" s="18"/>
       <c r="I34" s="19"/>
@@ -2859,16 +4487,16 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="49"/>
+      <c r="B35" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="61"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="58"/>
       <c r="G35" s="7"/>
       <c r="H35" s="18"/>
       <c r="I35" s="14"/>
@@ -2892,16 +4520,16 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="53" t="s">
+      <c r="A36" s="49"/>
+      <c r="B36" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="C36" s="54"/>
-      <c r="D36" s="47" t="s">
+      <c r="C36" s="110"/>
+      <c r="D36" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="52"/>
       <c r="G36" s="7"/>
       <c r="H36" s="18"/>
       <c r="I36" s="14"/>
@@ -2925,16 +4553,16 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="50" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="111" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="50"/>
-      <c r="D37" s="44" t="s">
+      <c r="C37" s="111"/>
+      <c r="D37" s="53" t="s">
         <v>120</v>
       </c>
-      <c r="E37" s="45"/>
-      <c r="F37" s="46"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
       <c r="G37" s="7"/>
       <c r="H37" s="18"/>
       <c r="I37" s="14"/>
@@ -2958,16 +4586,16 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="113"/>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="111" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="47" t="s">
+      <c r="C38" s="111"/>
+      <c r="D38" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="7"/>
       <c r="H38" s="18"/>
       <c r="I38" s="14"/>
@@ -2991,16 +4619,16 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113"/>
-      <c r="B39" s="50" t="s">
+      <c r="A39" s="49"/>
+      <c r="B39" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="47" t="s">
+      <c r="C39" s="111"/>
+      <c r="D39" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="52"/>
       <c r="G39" s="7"/>
       <c r="H39" s="18"/>
       <c r="I39" s="14"/>
@@ -3024,16 +4652,16 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="50" t="s">
+      <c r="A40" s="49"/>
+      <c r="B40" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="47" t="s">
+      <c r="C40" s="111"/>
+      <c r="D40" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="52"/>
       <c r="G40" s="7"/>
       <c r="H40" s="18"/>
       <c r="I40" s="14"/>
@@ -3057,16 +4685,16 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="50" t="s">
+      <c r="A41" s="49"/>
+      <c r="B41" s="111" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="50"/>
-      <c r="D41" s="47" t="s">
+      <c r="C41" s="111"/>
+      <c r="D41" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="52"/>
       <c r="G41" s="7"/>
       <c r="H41" s="18"/>
       <c r="I41" s="14"/>
@@ -3090,16 +4718,16 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="50" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="50"/>
-      <c r="D42" s="47" t="s">
+      <c r="C42" s="111"/>
+      <c r="D42" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="E42" s="48"/>
-      <c r="F42" s="49"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="52"/>
       <c r="G42" s="7"/>
       <c r="H42" s="18"/>
       <c r="I42" s="14"/>
@@ -3123,18 +4751,18 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="102" t="s">
+      <c r="B43" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="103"/>
-      <c r="D43" s="47" t="s">
+      <c r="C43" s="37"/>
+      <c r="D43" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="52"/>
       <c r="G43" s="7"/>
       <c r="H43" s="18"/>
       <c r="I43" s="14"/>
@@ -3158,16 +4786,16 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="106"/>
-      <c r="B44" s="102" t="s">
+      <c r="A44" s="124"/>
+      <c r="B44" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="103"/>
-      <c r="D44" s="104" t="s">
+      <c r="C44" s="37"/>
+      <c r="D44" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="60"/>
-      <c r="F44" s="61"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="7"/>
       <c r="H44" s="18"/>
       <c r="I44" s="14"/>
@@ -3191,16 +4819,16 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="106"/>
-      <c r="B45" s="102" t="s">
+      <c r="A45" s="124"/>
+      <c r="B45" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C45" s="103"/>
-      <c r="D45" s="104" t="s">
+      <c r="C45" s="37"/>
+      <c r="D45" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="61"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="7"/>
       <c r="H45" s="18"/>
       <c r="I45" s="14"/>
@@ -3224,16 +4852,16 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="107"/>
-      <c r="B46" s="102" t="s">
+      <c r="A46" s="125"/>
+      <c r="B46" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="103"/>
-      <c r="D46" s="104" t="s">
+      <c r="C46" s="37"/>
+      <c r="D46" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="E46" s="60"/>
-      <c r="F46" s="61"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="7"/>
       <c r="H46" s="18"/>
       <c r="I46" s="14"/>
@@ -3257,14 +4885,14 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="100"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
+      <c r="A47" s="121"/>
+      <c r="B47" s="122"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
+      <c r="F47" s="122"/>
+      <c r="G47" s="122"/>
+      <c r="H47" s="122"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -3286,18 +4914,18 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="96" t="s">
+      <c r="A48" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="98"/>
-      <c r="F48" s="99" t="s">
+      <c r="B48" s="106"/>
+      <c r="C48" s="106"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="97"/>
-      <c r="H48" s="98"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="107"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
@@ -3322,17 +4950,17 @@
       <c r="A49" s="8">
         <v>12</v>
       </c>
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C49" s="42"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="41">
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="38">
         <v>100</v>
       </c>
-      <c r="G49" s="42"/>
-      <c r="H49" s="43"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="40"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -3357,17 +4985,17 @@
       <c r="A50" s="8">
         <v>11</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="41">
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="38">
         <v>95</v>
       </c>
-      <c r="G50" s="42"/>
-      <c r="H50" s="43"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="40"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
@@ -3392,17 +5020,17 @@
       <c r="A51" s="8">
         <v>10</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="41">
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="38">
         <v>90</v>
       </c>
-      <c r="G51" s="42"/>
-      <c r="H51" s="43"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="40"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
@@ -3427,17 +5055,17 @@
       <c r="A52" s="8">
         <v>9</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="41">
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="38">
         <v>85</v>
       </c>
-      <c r="G52" s="42"/>
-      <c r="H52" s="43"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="40"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
@@ -3462,17 +5090,17 @@
       <c r="A53" s="8">
         <v>8</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41">
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="38">
         <v>80</v>
       </c>
-      <c r="G53" s="42"/>
-      <c r="H53" s="43"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="40"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -3497,17 +5125,17 @@
       <c r="A54" s="8">
         <v>7</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="C54" s="39"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="41">
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="38">
         <v>75</v>
       </c>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="40"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
@@ -3532,17 +5160,17 @@
       <c r="A55" s="8">
         <v>6</v>
       </c>
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="41">
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="38">
         <v>70</v>
       </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="43"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="40"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
@@ -3567,17 +5195,17 @@
       <c r="A56" s="8">
         <v>5</v>
       </c>
-      <c r="B56" s="70" t="s">
+      <c r="B56" s="104" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="42"/>
-      <c r="D56" s="42"/>
-      <c r="E56" s="43"/>
-      <c r="F56" s="41">
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="38">
         <v>65</v>
       </c>
-      <c r="G56" s="42"/>
-      <c r="H56" s="43"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -3602,17 +5230,17 @@
       <c r="A57" s="8">
         <v>4</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="42"/>
-      <c r="D57" s="42"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="41">
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="38">
         <v>60</v>
       </c>
-      <c r="G57" s="42"/>
-      <c r="H57" s="43"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="40"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
@@ -3637,17 +5265,17 @@
       <c r="A58" s="8">
         <v>3</v>
       </c>
-      <c r="B58" s="70" t="s">
+      <c r="B58" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="43"/>
-      <c r="F58" s="41">
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="38">
         <v>55</v>
       </c>
-      <c r="G58" s="42"/>
-      <c r="H58" s="43"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="40"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
@@ -3672,17 +5300,17 @@
       <c r="A59" s="8">
         <v>2</v>
       </c>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="42"/>
-      <c r="D59" s="42"/>
-      <c r="E59" s="43"/>
-      <c r="F59" s="41">
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="38">
         <v>50</v>
       </c>
-      <c r="G59" s="42"/>
-      <c r="H59" s="43"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="40"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -3707,17 +5335,17 @@
       <c r="A60" s="8">
         <v>1</v>
       </c>
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="42"/>
-      <c r="D60" s="42"/>
-      <c r="E60" s="43"/>
-      <c r="F60" s="41">
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="38">
         <v>30</v>
       </c>
-      <c r="G60" s="42"/>
-      <c r="H60" s="43"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="40"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
@@ -3809,16 +5437,16 @@
       <c r="D63" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="64">
+      <c r="E63" s="99">
         <v>1</v>
       </c>
-      <c r="F63" s="64">
+      <c r="F63" s="99">
         <v>0</v>
       </c>
-      <c r="G63" s="66" t="s">
+      <c r="G63" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="H63" s="68" t="s">
+      <c r="H63" s="102" t="s">
         <v>45</v>
       </c>
       <c r="I63" s="1"/>
@@ -3848,10 +5476,10 @@
       <c r="D64" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="69"/>
+      <c r="E64" s="100"/>
+      <c r="F64" s="100"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="103"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -3873,18 +5501,18 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="58" t="s">
+      <c r="A65" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="B65" s="58"/>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="58"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="58"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -22465,6 +24093,102 @@
     </row>
   </sheetData>
   <mergeCells count="120">
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="H63:H64"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:H56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F57:H57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G5:J7"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C6:D7"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F7"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="B55:E55"/>
@@ -22489,107 +24213,1771 @@
     <mergeCell ref="D29:F29"/>
     <mergeCell ref="D31:F31"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G5:J7"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C6:D7"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F7"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="A65:J65"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="H63:H64"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="F56:H56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F57:H57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A47:H47"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:F44"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F082BA-AB26-47EC-9059-B411BA18B926}">
+  <dimension ref="A1:G158"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="113" customWidth="1"/>
+    <col min="2" max="2" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="126" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="128" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="130" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="128" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="43.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="130" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="128" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="128" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="128" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="131" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="132" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="134" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="137" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="135" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="138"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="135" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="138"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="135" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="138"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="135" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="138"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="135" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="138"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="139"/>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="126" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="C27" s="126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="128">
+        <v>100</v>
+      </c>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="129"/>
+      <c r="B29" s="130">
+        <v>200</v>
+      </c>
+      <c r="C29" s="129"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="127"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="134" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" s="137" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="135" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="138"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B35" s="138"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="135" t="s">
+        <v>171</v>
+      </c>
+      <c r="B36" s="138"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="135" t="s">
+        <v>172</v>
+      </c>
+      <c r="B37" s="138"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="135" t="s">
+        <v>173</v>
+      </c>
+      <c r="B38" s="138"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="135" t="s">
+        <v>174</v>
+      </c>
+      <c r="B39" s="138"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="135" t="s">
+        <v>175</v>
+      </c>
+      <c r="B40" s="138"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="138"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="136" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="139"/>
+    </row>
+    <row r="43" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="D44" s="126" t="s">
+        <v>179</v>
+      </c>
+      <c r="E44" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="F44" s="126" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="126" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="128" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="127"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="127"/>
+      <c r="G45" s="127"/>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="129"/>
+      <c r="D46" s="130">
+        <v>3000</v>
+      </c>
+      <c r="E46" s="129"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="129"/>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="127"/>
+      <c r="D47" s="127"/>
+      <c r="E47" s="128">
+        <v>10</v>
+      </c>
+      <c r="F47" s="127"/>
+      <c r="G47" s="127"/>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="130">
+        <v>300</v>
+      </c>
+      <c r="G48" s="129"/>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="127"/>
+      <c r="D49" s="127"/>
+      <c r="E49" s="127"/>
+      <c r="F49" s="127"/>
+      <c r="G49" s="128">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="133" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="134" t="s">
+        <v>185</v>
+      </c>
+      <c r="B52" s="137" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="135" t="s">
+        <v>186</v>
+      </c>
+      <c r="B53" s="138"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="135" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="138"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="135" t="s">
+        <v>188</v>
+      </c>
+      <c r="B55" s="138"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="135" t="s">
+        <v>189</v>
+      </c>
+      <c r="B56" s="138"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="138"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="135" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="138"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="B59" s="138"/>
+    </row>
+    <row r="60" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="136" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="139"/>
+    </row>
+    <row r="61" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="126" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="126" t="s">
+        <v>195</v>
+      </c>
+      <c r="E62" s="126" t="s">
+        <v>196</v>
+      </c>
+      <c r="F62" s="126" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="128" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+    </row>
+    <row r="64" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="129"/>
+      <c r="D64" s="130">
+        <v>5</v>
+      </c>
+      <c r="E64" s="129"/>
+      <c r="F64" s="129"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="127"/>
+      <c r="D65" s="127"/>
+      <c r="E65" s="128">
+        <v>3</v>
+      </c>
+      <c r="F65" s="127"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="130">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="133" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="134" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="137" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="135" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="138"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="135" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" s="138"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="138"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="135" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="138"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="138"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="135" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="138"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="135" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="138"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="135" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="138"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="136" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" s="139"/>
+    </row>
+    <row r="79" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="126" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="126" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="126" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="128">
+        <v>10</v>
+      </c>
+      <c r="D81" s="127"/>
+      <c r="E81" s="127"/>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="129"/>
+      <c r="D82" s="130">
+        <v>11</v>
+      </c>
+      <c r="E82" s="129"/>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="127"/>
+      <c r="D83" s="127"/>
+      <c r="E83" s="128">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="133" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="147" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="134" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86" s="137" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="135" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="138"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="135" t="s">
+        <v>160</v>
+      </c>
+      <c r="B88" s="138"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="135" t="s">
+        <v>161</v>
+      </c>
+      <c r="B89" s="138"/>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="139"/>
+    </row>
+    <row r="91" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="126" t="s">
+        <v>216</v>
+      </c>
+      <c r="D92" s="126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="128">
+        <v>9000</v>
+      </c>
+      <c r="D93" s="127"/>
+    </row>
+    <row r="94" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="129"/>
+      <c r="D94" s="130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="133" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B96" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="162.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="134" t="s">
+        <v>218</v>
+      </c>
+      <c r="B97" s="137" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="B98" s="138"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="135" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="138"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="135" t="s">
+        <v>221</v>
+      </c>
+      <c r="B100" s="138"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="135" t="s">
+        <v>222</v>
+      </c>
+      <c r="B101" s="138"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="135" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="138"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="135" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103" s="138"/>
+    </row>
+    <row r="104" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="136" t="s">
+        <v>225</v>
+      </c>
+      <c r="B104" s="139"/>
+    </row>
+    <row r="105" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="126" t="s">
+        <v>226</v>
+      </c>
+      <c r="D106" s="126" t="s">
+        <v>227</v>
+      </c>
+      <c r="E106" s="126" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="128">
+        <v>2</v>
+      </c>
+      <c r="D107" s="127"/>
+      <c r="E107" s="127"/>
+    </row>
+    <row r="108" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C108" s="129"/>
+      <c r="D108" s="130">
+        <v>2</v>
+      </c>
+      <c r="E108" s="129"/>
+    </row>
+    <row r="109" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C109" s="127"/>
+      <c r="D109" s="127"/>
+      <c r="E109" s="128" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="133" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B111" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="134" t="s">
+        <v>231</v>
+      </c>
+      <c r="B112" s="137" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="135" t="s">
+        <v>232</v>
+      </c>
+      <c r="B113" s="138"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="135" t="s">
+        <v>233</v>
+      </c>
+      <c r="B114" s="138"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="135" t="s">
+        <v>234</v>
+      </c>
+      <c r="B115" s="138"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="135" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" s="138"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="135" t="s">
+        <v>236</v>
+      </c>
+      <c r="B117" s="138"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="135" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="138"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="135" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="138"/>
+    </row>
+    <row r="120" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="136" t="s">
+        <v>239</v>
+      </c>
+      <c r="B120" s="139"/>
+    </row>
+    <row r="121" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C121" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C122" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" s="126" t="s">
+        <v>241</v>
+      </c>
+      <c r="E122" s="126" t="s">
+        <v>242</v>
+      </c>
+      <c r="F122" s="126" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C123" s="128">
+        <v>2</v>
+      </c>
+      <c r="D123" s="127"/>
+      <c r="E123" s="127"/>
+      <c r="F123" s="127"/>
+    </row>
+    <row r="124" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C124" s="129"/>
+      <c r="D124" s="130">
+        <v>6</v>
+      </c>
+      <c r="E124" s="129"/>
+      <c r="F124" s="129"/>
+    </row>
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C125" s="127"/>
+      <c r="D125" s="127"/>
+      <c r="E125" s="128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" s="127"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C126" s="129"/>
+      <c r="D126" s="129"/>
+      <c r="E126" s="129"/>
+      <c r="F126" s="130">
+        <v>75.36</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="133" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B128" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="134" t="s">
+        <v>246</v>
+      </c>
+      <c r="B129" s="137" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="135" t="s">
+        <v>247</v>
+      </c>
+      <c r="B130" s="138"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B131" s="138"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="135" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" s="138"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="135" t="s">
+        <v>249</v>
+      </c>
+      <c r="B133" s="138"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="135" t="s">
+        <v>250</v>
+      </c>
+      <c r="B134" s="138"/>
+    </row>
+    <row r="135" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="136" t="s">
+        <v>251</v>
+      </c>
+      <c r="B135" s="139"/>
+    </row>
+    <row r="136" spans="1:5" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C136" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C137" s="126" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" s="126" t="s">
+        <v>252</v>
+      </c>
+      <c r="E137" s="126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C138" s="128" t="s">
+        <v>254</v>
+      </c>
+      <c r="D138" s="127"/>
+      <c r="E138" s="127"/>
+    </row>
+    <row r="139" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C139" s="129"/>
+      <c r="D139" s="130">
+        <v>100</v>
+      </c>
+      <c r="E139" s="129"/>
+    </row>
+    <row r="140" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C140" s="127"/>
+      <c r="D140" s="127"/>
+      <c r="E140" s="128">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="133" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="126" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="134" t="s">
+        <v>256</v>
+      </c>
+      <c r="B143" s="137" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="B144" s="138"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="135" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" s="138"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="135" t="s">
+        <v>259</v>
+      </c>
+      <c r="B146" s="138"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="135" t="s">
+        <v>260</v>
+      </c>
+      <c r="B147" s="138"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="B148" s="138"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="135" t="s">
+        <v>262</v>
+      </c>
+      <c r="B149" s="138"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="135" t="s">
+        <v>263</v>
+      </c>
+      <c r="B150" s="138"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="135" t="s">
+        <v>264</v>
+      </c>
+      <c r="B151" s="138"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="136" t="s">
+        <v>265</v>
+      </c>
+      <c r="B152" s="139"/>
+    </row>
+    <row r="153" spans="1:6" ht="33.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="126" t="s">
+        <v>266</v>
+      </c>
+      <c r="D154" s="126" t="s">
+        <v>267</v>
+      </c>
+      <c r="E154" s="126" t="s">
+        <v>268</v>
+      </c>
+      <c r="F154" s="126" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="128" t="s">
+        <v>270</v>
+      </c>
+      <c r="D155" s="127"/>
+      <c r="E155" s="127"/>
+      <c r="F155" s="127"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="129"/>
+      <c r="D156" s="130">
+        <v>30000</v>
+      </c>
+      <c r="E156" s="129"/>
+      <c r="F156" s="129"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="127"/>
+      <c r="D157" s="127"/>
+      <c r="E157" s="128">
+        <v>26532</v>
+      </c>
+      <c r="F157" s="127"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="129"/>
+      <c r="D158" s="129"/>
+      <c r="E158" s="129"/>
+      <c r="F158" s="130">
+        <v>88.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B112:B120"/>
+    <mergeCell ref="B129:B135"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="B52:B60"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="B97:B104"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BC0DAD-746C-4181-8F19-BF7F84EA7BE1}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="109.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="144" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="131" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="141" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="141" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="69" x14ac:dyDescent="0.2">
+      <c r="A5" s="141" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="141" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="141" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="141" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="141" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="141" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="142" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="142" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="142" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="141" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="141" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B6282C-4901-405D-A07C-9B53363EF9A9}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="96.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="144" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="131" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="141" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="141" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="141" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="141" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="141" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="141" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="141" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="141" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="141" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="141" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="142" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="142" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="142" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="142" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="142" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="142" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="142" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="142" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="142" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="142" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="142" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="141" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="141" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32382368-0AEC-4355-A3EF-9EA4CA1B6733}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="146" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="145" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="146" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="145" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="146" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="145" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="146" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="145" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="146" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="145" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="147" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="148" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="149">
+        <v>122</v>
+      </c>
+      <c r="B14" s="150">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="151">
+        <v>131</v>
+      </c>
+      <c r="B15" s="152">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="149">
+        <v>132</v>
+      </c>
+      <c r="B16" s="150">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="151">
+        <v>121</v>
+      </c>
+      <c r="B17" s="152">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="149">
+        <v>119</v>
+      </c>
+      <c r="B18" s="150">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="151" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="152" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="149">
+        <v>125</v>
+      </c>
+      <c r="B20" s="150">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="145" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="146" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="153" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="153" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="153" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="153" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="153" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="145" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="145" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="146" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="145" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="145" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="153" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="153" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="153" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="145" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="153" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="153" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="153" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="145" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="153" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="154" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B2A1839-E391-431B-AE57-B90E1AAADC6C}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="96.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="144" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="131" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="132" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="141" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="69" x14ac:dyDescent="0.2">
+      <c r="A5" s="141" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="141" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="141" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="141" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="69" x14ac:dyDescent="0.2">
+      <c r="A9" s="141" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="141" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="141" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="141" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="34.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="141" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="51.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="141" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="142"/>
+    </row>
+    <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="142"/>
+    </row>
+    <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="142"/>
+    </row>
+    <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="142"/>
+    </row>
+    <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="142"/>
+    </row>
+    <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="142"/>
+    </row>
+    <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="142"/>
+    </row>
+    <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="142"/>
+    </row>
+    <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="142"/>
+    </row>
+    <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="141"/>
+    </row>
+    <row r="25" spans="1:1" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="141"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41806B36-F295-4AFB-8073-5FBA008A6B67}">
+  <dimension ref="A1:A143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="113.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="155" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="156" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="143" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="143" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="143" t="s">
+        <v>369</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E4BE0B7-2C8D-4712-8AB6-C52B0E25A350}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N90" sqref="N90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>